--- a/data/trans_dic/P9_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,42%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>84,39%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,57; 88,36</t>
+          <t>80,75; 91,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,79; 88,73</t>
+          <t>80,95; 91,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,79; 84,12</t>
+          <t>76,39; 87,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,75; 84,4</t>
+          <t>76,03; 87,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,44; 84,89</t>
+          <t>80,55; 87,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,29; 85,29</t>
+          <t>80,39; 87,8</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>80,68%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,85; 84,85</t>
+          <t>73,18; 86,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,22; 86,44</t>
+          <t>73,23; 86,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,72; 81,44</t>
+          <t>74,41; 87,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,68; 81,62</t>
+          <t>73,46; 86,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,75; 81,62</t>
+          <t>76,27; 85,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,83; 82,39</t>
+          <t>75,86; 85,19</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>64,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>63,89%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,36; 76,28</t>
+          <t>20,86; 73,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,98; 76,27</t>
+          <t>19,63; 72,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,44; 88,28</t>
+          <t>64,38; 90,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,06; 86,92</t>
+          <t>64,69; 90,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,42; 79,69</t>
+          <t>43,56; 77,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,82; 78,81</t>
+          <t>42,8; 77,34</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>80,72%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,34; 83,77</t>
+          <t>71,76; 84,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,86; 84,33</t>
+          <t>70,96; 84,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,82; 81,55</t>
+          <t>77,59; 85,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,06; 81,78</t>
+          <t>76,98; 85,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,63; 81,6</t>
+          <t>77,47; 83,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,96; 82,01</t>
+          <t>77,12; 83,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>316824</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>373385</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>359822</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>418953</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>676645</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>792339</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>295323; 334088</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>348162; 393713</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>332586; 380438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>386875; 444125</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>645316; 703251</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>754761; 824390</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>244532</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>289082</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>285574</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>344023</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>530105</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>633105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>222979; 264176</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>263180; 312520</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>260490; 304856</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>312468; 368234</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>499407; 558544</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>595349; 668544</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42676</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49914</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64915</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>79731</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>107591</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>129645</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17691; 62565</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19981; 73893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53187; 74702</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65440; 91565</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72943; 129386</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>86853; 156947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>604031</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>712380</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>710311</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>842707</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1314342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1555088</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>541971; 638445</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>632460; 754079</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>673533; 741465</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>797064; 881065</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1257665; 1363326</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1485703; 1615940</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>